--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3532899.870626023</v>
+        <v>3528804.229121257</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7839760.514778417</v>
+        <v>7839760.514778415</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>36.73830090461015</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>310.0270048647827</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -870,22 +870,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>234.2433095919566</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.76048372759745</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>36.55109356902262</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>187.5175205517498</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>40.7760487479865</v>
+        <v>199.596221143641</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>34.88919370994275</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>252.421250068906</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.5719074575846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>80.25286948725228</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>163.3760574240882</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6320338128964</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>12.76515480631744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>110.6781695176982</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>20.2254435299302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>84.07981473403056</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>54.29785174158985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>49.48749137895456</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>99.97427419833856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.54185816719593</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>134.117745587606</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.93450140722175</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.6074030911695</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>455.6448861507579</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>455.6448861507579</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2400.530726073484</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>2069.467838729914</v>
       </c>
       <c r="W2" t="n">
-        <v>1584.673001416371</v>
+        <v>1716.6991834598</v>
       </c>
       <c r="X2" t="n">
-        <v>1211.207243155291</v>
+        <v>1716.6991834598</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.207243155291</v>
+        <v>1716.6991834598</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>475.205037342667</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C4" t="n">
-        <v>475.205037342667</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>877.6460813164368</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>877.6460813164368</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>877.6460813164368</v>
+        <v>1328.384992287721</v>
       </c>
       <c r="X4" t="n">
-        <v>877.6460813164368</v>
+        <v>1100.395441389704</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.8535021729067</v>
+        <v>1100.395441389704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>531.416277857742</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="C5" t="n">
-        <v>531.416277857742</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="D5" t="n">
-        <v>173.1505792509915</v>
+        <v>1022.077121445111</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>1022.077121445111</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>611.0912166555038</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796628</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453058</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218637</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y5" t="n">
-        <v>918.0161179218637</v>
+        <v>1380.342820051862</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>870.3292415458913</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1233.591260505111</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.7307788730139</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C7" t="n">
-        <v>452.7307788730139</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D7" t="n">
-        <v>452.7307788730139</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1083.161373744801</v>
+        <v>1434.833775484961</v>
       </c>
       <c r="W7" t="n">
-        <v>1083.161373744801</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X7" t="n">
-        <v>855.1718228467838</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.3792437032537</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1600.460626751969</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1242.194928145218</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>856.4066755469739</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>3070.634861943609</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2717.866206673495</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X8" t="n">
-        <v>2717.866206673495</v>
+        <v>2746.162315732314</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.476813167026</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635128</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.1252779972657</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>398.6787020904383</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>398.6787020904383</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1812.434759880117</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1557.75027167423</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1268.333101637269</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1040.343550739252</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2977.325134535463</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>2977.325134535463</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>2827.208495123128</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2679.295401540734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3158.973599365703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6454,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>139.2347658407936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565524</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.841029837709</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.271624709496</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.282073811479</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.4894946679487</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>417.9651836029407</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3228.447361044448</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741618</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159225</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328843</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122956</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085996</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187978</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044448</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998291</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683287</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>923.4916164683287</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>773.374977055993</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>625.4618834735999</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>478.5719359756895</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>311.3758366905694</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611859</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683287</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7666,34 +7666,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013357</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241559</v>
+        <v>280.1079373569272</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>85.27126880501656</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>28.78901421003481</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>115.0314858713389</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>266.2975548066608</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>64.53565828418179</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>112.948969357038</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>202.6501519448734</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>45.44677382459268</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.70496293143191</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.17696725861785</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>130.4994612393474</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894154</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894154</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
@@ -26328,34 +26328,34 @@
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132557</v>
-      </c>
       <c r="L2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>3.973943013738005e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744231</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744251</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744231</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583748.0558682848</v>
+        <v>-583748.055868285</v>
       </c>
       <c r="C6" t="n">
-        <v>531003.7277076348</v>
+        <v>531003.7277076347</v>
       </c>
       <c r="D6" t="n">
-        <v>370988.2649596356</v>
+        <v>370988.2649596357</v>
       </c>
       <c r="E6" t="n">
-        <v>311348.3566902487</v>
+        <v>311000.9774358918</v>
       </c>
       <c r="F6" t="n">
-        <v>636760.8184976038</v>
+        <v>636413.439243247</v>
       </c>
       <c r="G6" t="n">
-        <v>636760.8184976042</v>
+        <v>636413.4392432469</v>
       </c>
       <c r="H6" t="n">
-        <v>636760.818497604</v>
+        <v>636413.4392432469</v>
       </c>
       <c r="I6" t="n">
-        <v>636760.8184976039</v>
+        <v>636413.4392432468</v>
       </c>
       <c r="J6" t="n">
-        <v>469155.6406876216</v>
+        <v>468808.2614332643</v>
       </c>
       <c r="K6" t="n">
-        <v>636760.8184976042</v>
+        <v>636413.4392432473</v>
       </c>
       <c r="L6" t="n">
-        <v>588466.8484894133</v>
+        <v>588119.4692350562</v>
       </c>
       <c r="M6" t="n">
-        <v>551705.7905620917</v>
+        <v>551358.411307735</v>
       </c>
       <c r="N6" t="n">
-        <v>636760.8184976036</v>
+        <v>636413.4392432469</v>
       </c>
       <c r="O6" t="n">
-        <v>636760.818497604</v>
+        <v>636413.4392432469</v>
       </c>
       <c r="P6" t="n">
-        <v>636760.8184976036</v>
+        <v>636413.4392432469</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.967428767172506e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.967428767172506e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>214.3069492238519</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.21396385263034</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>51.98384452924404</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7625146089936</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>345.3792765032392</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>224.0301822212042</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>211.3615945758415</v>
+        <v>52.54142218018697</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>371.9868520317687</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>75.33100840122893</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.0127458945102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-3.936596670799811e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>353.3934907042769</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>488.7223436347931</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>183.7183104822597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>314.1059622342723</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663286</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>490.5075832355679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>338.6542681503479</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170298</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>508.713261862006</v>
+        <v>577.7882979947775</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>219.4190832899467</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>350.1679638549189</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>45.87687150790074</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>176.2645232599133</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394595</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316675</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316675</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>196.0580237059035</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3528804.229121257</v>
+        <v>3530564.759424042</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7839760.514778415</v>
+        <v>7839760.514778416</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>268.875147148909</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>36.73830090461015</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>184.970423467713</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>8.76048372759745</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>129.590100407983</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5175205517498</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>85.36610313819149</v>
       </c>
       <c r="V7" t="n">
-        <v>199.596221143641</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>34.88919370994275</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>213.4331505673754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>47.84205650381978</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.5207962406042</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>167.1115298725988</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>49.48749137895456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>115.7228684476123</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>97.54185816719593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>800.197398247893</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>800.197398247893</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>389.2114934582855</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,55 +4327,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2400.530726073484</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2069.467838729914</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1716.6991834598</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1716.6991834598</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.6991834598</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
@@ -4415,25 +4415,25 @@
         <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004313</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963533</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1449.607308490949</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1160.488970994786</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>905.8044827888993</v>
       </c>
       <c r="W4" t="n">
-        <v>1328.384992287721</v>
+        <v>905.8044827888993</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.395441389704</v>
+        <v>677.814931890882</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.342820051862</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.342820051862</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.077121445111</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="E5" t="n">
-        <v>1022.077121445111</v>
+        <v>597.8506281649093</v>
       </c>
       <c r="F5" t="n">
-        <v>611.0912166555038</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583056</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312942</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051862</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051862</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458913</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505111</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.9860105762135</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
         <v>346.0498276483066</v>
@@ -4713,19 +4713,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1550.217733066223</v>
       </c>
       <c r="V7" t="n">
-        <v>1434.833775484961</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W7" t="n">
-        <v>1145.416605448001</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>917.4270545499834</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>696.6344754064532</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.42314369238</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1600.460626751969</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1242.194928145218</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>856.4066755469739</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732314</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756502</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.8166630479716</v>
@@ -5041,10 +5041,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5357,19 +5357,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,70 +5971,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6940,19 +6940,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.5507239167111</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.398488825459</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.981318788498</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.991767890481</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469509</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7794,10 +7794,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3555089013357</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
-        <v>280.1079373569272</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951749</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>50.2939204546895</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>202.6501519448734</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.8926045706001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>69.70496293143191</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
@@ -26337,19 +26337,19 @@
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309552</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-583748.055868285</v>
       </c>
       <c r="C6" t="n">
-        <v>531003.7277076347</v>
+        <v>531003.7277076342</v>
       </c>
       <c r="D6" t="n">
-        <v>370988.2649596357</v>
+        <v>370988.2649596354</v>
       </c>
       <c r="E6" t="n">
-        <v>311000.9774358918</v>
+        <v>311313.6187648125</v>
       </c>
       <c r="F6" t="n">
-        <v>636413.439243247</v>
+        <v>636726.0805721687</v>
       </c>
       <c r="G6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="H6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="I6" t="n">
-        <v>636413.4392432468</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="J6" t="n">
-        <v>468808.2614332643</v>
+        <v>469120.9027621855</v>
       </c>
       <c r="K6" t="n">
-        <v>636413.4392432473</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="L6" t="n">
-        <v>588119.4692350562</v>
+        <v>588432.1105639775</v>
       </c>
       <c r="M6" t="n">
-        <v>551358.411307735</v>
+        <v>551671.0526366566</v>
       </c>
       <c r="N6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="O6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="P6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721682</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.6725556240449</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>214.3069492238519</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>35.77827252949896</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>277.7625146089936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>277.2859453337284</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0301822212042</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>200.8610509830091</v>
       </c>
       <c r="V7" t="n">
-        <v>52.54142218018697</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>371.9868520317687</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>135.8078181500376</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -33262,31 +33262,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>622.3466130915036</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>412.0358695391859</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>577.7882979947775</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.584832100039</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36910,31 +36910,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>479.7503686470592</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
